--- a/v1.1_Multifuel_Database/Nissan_350z_Dyno.xlsx
+++ b/v1.1_Multifuel_Database/Nissan_350z_Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0ee2475784414c/Masaüstü/GitHub/Virtual-Engine-Test-Bench/v1.1_Multifuel_Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9293B216-FF77-496A-9FEE-A336292097E6}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C906C8C5-7EB6-48A9-A3F4-83C553A668BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>RPM</t>
-  </si>
-  <si>
-    <t>Average</t>
   </si>
   <si>
     <t xml:space="preserve"> Torque (Nm)</t>
@@ -115,6 +112,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,10 +399,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,7 +922,7 @@
         <v>201.82423355253201</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>5700</v>
       </c>
@@ -932,7 +933,7 @@
         <v>204.236496343032</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>5800</v>
       </c>
@@ -943,7 +944,7 @@
         <v>206.708115101479</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5900</v>
       </c>
@@ -954,7 +955,7 @@
         <v>209.47243124366599</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6000</v>
       </c>
@@ -965,7 +966,7 @@
         <v>212.33038800025199</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>6100</v>
       </c>
@@ -976,7 +977,7 @@
         <v>214.541836312626</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6200</v>
       </c>
@@ -987,7 +988,7 @@
         <v>217.10802915559901</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6300</v>
       </c>
@@ -998,7 +999,7 @@
         <v>221.4306569</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>6400</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>221.4306569</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>6500</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>221.4306569</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>6600</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>221.24671529338099</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>6700</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>220.80597208947199</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>6800</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>220.31199160591899</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>6900</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>218.234202294401</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>7000</v>
       </c>
@@ -1073,11 +1074,6 @@
       </c>
       <c r="C62" s="1">
         <v>217.22627739999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
